--- a/biology/Botanique/Forêts_tempérées_valdiviennes/Forêts_tempérées_valdiviennes.xlsx
+++ b/biology/Botanique/Forêts_tempérées_valdiviennes/Forêts_tempérées_valdiviennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_temp%C3%A9r%C3%A9es_valdiviennes</t>
+          <t>Forêts_tempérées_valdiviennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts tempérées valdiviennes forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des forêts de feuillus et mixtes tempérées de l'écozone néotropicale. Elle couvre la partie méridionale du versant chilien des Andes, aux alentours de la ville de Valdivia, ainsi que les régions adjacentes d'Argentine. Ces forêts se caractérisent par un taux très élevé d'endémisme.
 Les forêts valdiviennes sont un refuge pour la flore antarctique et partagent de nombreuses familles de plantes avec les forêts pluviales tempérées de Nouvelle-Zélande et d'Australie. La moitié des espèces de plantes ligneuses sont endémiques à cette écorégion.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_temp%C3%A9r%C3%A9es_valdiviennes</t>
+          <t>Forêts_tempérées_valdiviennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La protection de ce biotope se passe par exemple au parc de Pumalín, au Chili.
 </t>
